--- a/public/template/sr_import.xlsx
+++ b/public/template/sr_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18528" windowHeight="7284"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>需求来源</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>操作系统版本</t>
+  </si>
+  <si>
+    <t>操作系统小版本号</t>
   </si>
   <si>
     <t>芯片</t>
@@ -107,12 +110,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +141,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -151,76 +161,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,9 +177,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,44 +283,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -297,187 +293,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,16 +488,36 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,17 +537,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,55 +585,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,148 +604,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -757,72 +753,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -951,7 +947,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -972,9 +968,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="true"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -995,7 +991,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1065,7 +1061,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1091,7 +1087,7 @@
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1120,34 +1116,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="23.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="15.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="24.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="24.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="13.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="15.2222222222222" customWidth="1"/>
-    <col min="8" max="8" width="12.5555555555556" customWidth="1"/>
-    <col min="9" max="9" width="12.8888888888889" customWidth="1"/>
-    <col min="10" max="10" width="9.88888888888889" customWidth="1"/>
-    <col min="12" max="12" width="12.3333333333333" customWidth="1"/>
-    <col min="13" max="13" width="18.5555555555556" customWidth="1"/>
-    <col min="14" max="14" width="14.8888888888889" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="20.1111111111111" customWidth="1"/>
-    <col min="17" max="17" width="15.1111111111111" customWidth="1"/>
-    <col min="18" max="18" width="12.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="16.225" customWidth="true"/>
+    <col min="2" max="2" width="23.5583333333333" customWidth="true"/>
+    <col min="3" max="3" width="15.775" customWidth="true"/>
+    <col min="4" max="4" width="24.6666666666667" customWidth="true"/>
+    <col min="5" max="5" width="24.3333333333333" customWidth="true"/>
+    <col min="6" max="6" width="13.775" customWidth="true"/>
+    <col min="7" max="7" width="15.225" customWidth="true"/>
+    <col min="8" max="8" width="16.75" customWidth="true"/>
+    <col min="9" max="9" width="12.5583333333333" customWidth="true"/>
+    <col min="10" max="10" width="12.8916666666667" customWidth="true"/>
+    <col min="11" max="11" width="9.89166666666667" customWidth="true"/>
+    <col min="13" max="13" width="12.3333333333333" customWidth="true"/>
+    <col min="14" max="14" width="18.5583333333333" customWidth="true"/>
+    <col min="15" max="15" width="14.8916666666667" customWidth="true"/>
+    <col min="16" max="16" width="15" customWidth="true"/>
+    <col min="17" max="17" width="20.1083333333333" customWidth="true"/>
+    <col min="18" max="18" width="15.1083333333333" customWidth="true"/>
+    <col min="19" max="19" width="12.775" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1169,10 +1166,10 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -1181,13 +1178,13 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -1199,51 +1196,55 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" ht="72" spans="1:18">
+    <row r="2" ht="67.5" spans="1:19">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="2"/>
       <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="2"/>
+      <c r="R2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1262,8 +1263,9 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1282,8 +1284,9 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1302,8 +1305,9 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1322,8 +1326,9 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1342,8 +1347,9 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1362,8 +1368,9 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1382,8 +1389,9 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1402,8 +1410,9 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1422,8 +1431,9 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1442,26 +1452,27 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
       <formula1>"一般,紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
       <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
       <formula1>"招投标,实施阶段,运维阶段"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1479,7 +1490,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1496,7 +1507,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/public/template/sr_import.xlsx
+++ b/public/template/sr_import.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>需求来源</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>产品名称</t>
+  </si>
+  <si>
+    <t>产品版本</t>
   </si>
   <si>
     <t>分类二</t>
@@ -110,8 +113,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -163,7 +166,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,98 +212,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,6 +225,67 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -299,13 +302,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,163 +464,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,11 +516,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,15 +542,47 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -569,177 +602,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1116,35 +1119,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.225" customWidth="true"/>
     <col min="2" max="2" width="23.5583333333333" customWidth="true"/>
-    <col min="3" max="3" width="15.775" customWidth="true"/>
-    <col min="4" max="4" width="24.6666666666667" customWidth="true"/>
-    <col min="5" max="5" width="24.3333333333333" customWidth="true"/>
-    <col min="6" max="6" width="13.775" customWidth="true"/>
-    <col min="7" max="7" width="15.225" customWidth="true"/>
-    <col min="8" max="8" width="16.75" customWidth="true"/>
-    <col min="9" max="9" width="12.5583333333333" customWidth="true"/>
-    <col min="10" max="10" width="12.8916666666667" customWidth="true"/>
-    <col min="11" max="11" width="9.89166666666667" customWidth="true"/>
-    <col min="13" max="13" width="12.3333333333333" customWidth="true"/>
-    <col min="14" max="14" width="18.5583333333333" customWidth="true"/>
-    <col min="15" max="15" width="14.8916666666667" customWidth="true"/>
-    <col min="16" max="16" width="15" customWidth="true"/>
-    <col min="17" max="17" width="20.1083333333333" customWidth="true"/>
-    <col min="18" max="18" width="15.1083333333333" customWidth="true"/>
-    <col min="19" max="19" width="12.775" customWidth="true"/>
+    <col min="3" max="4" width="15.775" customWidth="true"/>
+    <col min="5" max="5" width="24.6666666666667" customWidth="true"/>
+    <col min="6" max="6" width="24.3333333333333" customWidth="true"/>
+    <col min="7" max="7" width="13.775" customWidth="true"/>
+    <col min="8" max="8" width="15.225" customWidth="true"/>
+    <col min="9" max="9" width="16.75" customWidth="true"/>
+    <col min="10" max="10" width="12.5583333333333" customWidth="true"/>
+    <col min="11" max="11" width="12.8916666666667" customWidth="true"/>
+    <col min="12" max="12" width="9.89166666666667" customWidth="true"/>
+    <col min="14" max="14" width="12.3333333333333" customWidth="true"/>
+    <col min="15" max="15" width="18.5583333333333" customWidth="true"/>
+    <col min="16" max="16" width="14.8916666666667" customWidth="true"/>
+    <col min="17" max="17" width="15" customWidth="true"/>
+    <col min="18" max="18" width="20.1083333333333" customWidth="true"/>
+    <col min="19" max="19" width="15.1083333333333" customWidth="true"/>
+    <col min="20" max="20" width="12.775" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1166,13 +1169,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -1181,13 +1184,13 @@
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -1199,52 +1202,56 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" ht="67.5" spans="1:19">
+    <row r="2" ht="67.5" spans="1:20">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2"/>
       <c r="K2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="O2" s="2"/>
       <c r="P2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="2"/>
+      <c r="S2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1264,8 +1271,9 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1285,8 +1293,9 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1306,8 +1315,9 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1327,8 +1337,9 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1348,8 +1359,9 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1369,8 +1381,9 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1390,8 +1403,9 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1411,8 +1425,9 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1432,8 +1447,9 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1453,26 +1469,27 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
-      <formula1>"一般,紧急"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
-      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
       <formula1>"招投标,实施阶段,运维阶段"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"一般,紧急"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/sr_import.xlsx
+++ b/public/template/sr_import.xlsx
@@ -112,11 +112,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -150,6 +151,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -157,6 +166,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -164,8 +181,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -173,7 +197,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,106 +287,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -296,187 +297,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,6 +539,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -587,173 +603,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -767,6 +771,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -1121,8 +1134,8 @@
   <sheetPr/>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P$1:P$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1140,7 +1153,7 @@
     <col min="12" max="12" width="9.89166666666667" customWidth="true"/>
     <col min="14" max="14" width="12.3333333333333" customWidth="true"/>
     <col min="15" max="15" width="18.5583333333333" customWidth="true"/>
-    <col min="16" max="16" width="14.8916666666667" customWidth="true"/>
+    <col min="16" max="16" width="14.8916666666667" style="1" customWidth="true"/>
     <col min="17" max="17" width="15" customWidth="true"/>
     <col min="18" max="18" width="20.1083333333333" customWidth="true"/>
     <col min="19" max="19" width="15.1083333333333" customWidth="true"/>
@@ -1148,333 +1161,339 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="67.5" spans="1:20">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="3" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="2"/>
+      <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"一般,紧急"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
       <formula1>"招投标,实施阶段,运维阶段"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
@@ -1482,14 +1501,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
       <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
-      <formula1>"一般,紧急"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
-      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/sr_import.xlsx
+++ b/public/template/sr_import.xlsx
@@ -114,10 +114,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -151,38 +151,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,12 +190,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -211,17 +220,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,6 +235,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -243,7 +258,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,24 +272,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,187 +297,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,6 +517,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -525,16 +536,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,52 +589,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,145 +608,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P$1:P$1048576"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1492,17 +1492,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
       <formula1>"招投标,实施阶段,运维阶段"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
-      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
+      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
       <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/sr_import.xlsx
+++ b/public/template/sr_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>需求来源</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>参考生态网站软件分类三</t>
+  </si>
+  <si>
+    <t>银河麒麟桌面操作系统V10SP1</t>
+  </si>
+  <si>
+    <t>鲲鹏</t>
   </si>
   <si>
     <t>填写完整的项目名称</t>
@@ -113,13 +119,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +142,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +156,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -152,30 +194,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,7 +271,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,82 +282,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,6 +292,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -297,37 +309,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,152 +493,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -492,16 +504,29 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,13 +540,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,7 +574,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,45 +606,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -603,238 +619,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -963,7 +995,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -984,9 +1016,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="true"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1007,7 +1039,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="false"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1077,7 +1109,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1103,7 +1135,7 @@
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1135,29 +1167,29 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.225" customWidth="true"/>
-    <col min="2" max="2" width="23.5583333333333" customWidth="true"/>
-    <col min="3" max="4" width="15.775" customWidth="true"/>
-    <col min="5" max="5" width="24.6666666666667" customWidth="true"/>
-    <col min="6" max="6" width="24.3333333333333" customWidth="true"/>
-    <col min="7" max="7" width="13.775" customWidth="true"/>
-    <col min="8" max="8" width="15.225" customWidth="true"/>
-    <col min="9" max="9" width="16.75" customWidth="true"/>
-    <col min="10" max="10" width="12.5583333333333" customWidth="true"/>
-    <col min="11" max="11" width="12.8916666666667" customWidth="true"/>
-    <col min="12" max="12" width="9.89166666666667" customWidth="true"/>
-    <col min="14" max="14" width="12.3333333333333" customWidth="true"/>
-    <col min="15" max="15" width="18.5583333333333" customWidth="true"/>
-    <col min="16" max="16" width="14.8916666666667" style="1" customWidth="true"/>
-    <col min="17" max="17" width="15" customWidth="true"/>
-    <col min="18" max="18" width="20.1083333333333" customWidth="true"/>
-    <col min="19" max="19" width="15.1083333333333" customWidth="true"/>
-    <col min="20" max="20" width="12.775" customWidth="true"/>
+    <col min="1" max="1" width="16.225" customWidth="1"/>
+    <col min="2" max="2" width="23.5583333333333" customWidth="1"/>
+    <col min="3" max="4" width="15.775" customWidth="1"/>
+    <col min="5" max="5" width="24.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="24.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.775" customWidth="1"/>
+    <col min="8" max="8" width="15.225" customWidth="1"/>
+    <col min="9" max="9" width="16.75" customWidth="1"/>
+    <col min="10" max="10" width="12.5583333333333" customWidth="1"/>
+    <col min="11" max="11" width="12.8916666666667" customWidth="1"/>
+    <col min="12" max="12" width="9.89166666666667" customWidth="1"/>
+    <col min="14" max="14" width="12.3333333333333" customWidth="1"/>
+    <col min="15" max="15" width="18.5583333333333" customWidth="1"/>
+    <col min="16" max="16" width="14.8916666666667" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="20.1083333333333" customWidth="1"/>
+    <col min="19" max="19" width="15.1083333333333" customWidth="1"/>
+    <col min="20" max="20" width="12.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -1185,28 +1217,28 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -1218,7 +1250,7 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1238,29 +1270,33 @@
         <v>23</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="K2" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="7" t="s">
-        <v>26</v>
+      <c r="P2" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="T2" s="3"/>
     </row>
@@ -1280,7 +1316,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="8"/>
+      <c r="P3" s="9"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
@@ -1302,7 +1338,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="8"/>
+      <c r="P4" s="9"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -1324,7 +1360,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="8"/>
+      <c r="P5" s="9"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -1346,7 +1382,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="8"/>
+      <c r="P6" s="9"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -1368,7 +1404,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="8"/>
+      <c r="P7" s="9"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -1390,7 +1426,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="8"/>
+      <c r="P8" s="9"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -1412,7 +1448,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="8"/>
+      <c r="P9" s="9"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -1434,7 +1470,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="8"/>
+      <c r="P10" s="9"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -1456,7 +1492,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="8"/>
+      <c r="P11" s="9"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -1478,7 +1514,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="8"/>
+      <c r="P12" s="9"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -1486,23 +1522,23 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
-      <formula1>"一般,紧急"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
       <formula1>"招投标,实施阶段,运维阶段"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7,银河麒麟服务器操作系统V10SP2,银河麒麟桌面操作系统（金融机具版）V10,银河麒麟桌面操作系统（工控机版）V10,银河麒麟桌面操作系统（教育版）V10,银河麒麟桌面操作系统（大屏版）V10SP1"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
       <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
-      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"一般,紧急"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/sr_import.xlsx
+++ b/public/template/sr_import.xlsx
@@ -111,7 +111,7 @@
     <t>填写此适配需求提出人的联系方式</t>
   </si>
   <si>
-    <t>赵岩</t>
+    <t>张智斌</t>
   </si>
 </sst>
 </file>
@@ -122,8 +122,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -156,16 +156,75 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -173,58 +232,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,30 +254,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -270,8 +262,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,22 +272,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,187 +309,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,15 +531,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -551,6 +542,65 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,58 +623,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,10 +636,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,133 +648,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1167,7 +1167,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1522,14 +1522,14 @@
     </row>
   </sheetData>
   <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
       <formula1>"招投标,实施阶段,运维阶段"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
-      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
       <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7,银河麒麟服务器操作系统V10SP2,银河麒麟桌面操作系统（金融机具版）V10,银河麒麟桌面操作系统（工控机版）V10,银河麒麟桌面操作系统（教育版）V10,银河麒麟桌面操作系统（大屏版）V10SP1"</formula1>

--- a/public/template/sr_import.xlsx
+++ b/public/template/sr_import.xlsx
@@ -119,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="23">
@@ -157,14 +157,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,31 +202,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,24 +247,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,68 +295,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,181 +309,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,24 +546,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -579,6 +561,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -590,17 +590,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,6 +617,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -636,10 +636,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,140 +648,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,17 +800,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1164,13 +1161,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.225" customWidth="1"/>
     <col min="2" max="2" width="23.5583333333333" customWidth="1"/>
@@ -1217,28 +1214,28 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -1250,7 +1247,7 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1286,7 +1283,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>28</v>
       </c>
       <c r="Q2" s="4" t="s">
@@ -1295,247 +1292,27 @@
       <c r="R2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="T2" s="3"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
-      <formula1>"招投标,实施阶段,运维阶段"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7,银河麒麟服务器操作系统V10SP2,银河麒麟桌面操作系统（金融机具版）V10,银河麒麟桌面操作系统（工控机版）V10,银河麒麟桌面操作系统（教育版）V10,银河麒麟桌面操作系统（大屏版）V10SP1"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
-      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7,银河麒麟服务器操作系统V10SP2,银河麒麟桌面操作系统（金融机具版）V10,银河麒麟桌面操作系统（工控机版）V10,银河麒麟桌面操作系统（教育版）V10,银河麒麟桌面操作系统（大屏版）V10SP1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
-      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
+      <formula1>"招投标,实施阶段,运维阶段"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"一般,紧急"</formula1>

--- a/public/template/sr_import.xlsx
+++ b/public/template/sr_import.xlsx
@@ -4,19 +4,28 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="软件需求" sheetId="1" r:id="rId1"/>
+    <sheet name="软件分类" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="日常办公">软件分类!$A$2:$A$14</definedName>
+    <definedName name="多媒体软件">软件分类!$B$2:$B$4</definedName>
+    <definedName name="基础软件">软件分类!$C$2:$C$14</definedName>
+    <definedName name="安全防护">软件分类!$D$2:$D$12</definedName>
+    <definedName name="业务软件">软件分类!$E$2:$E$12</definedName>
+    <definedName name="开发测试">软件分类!$F$2:$F$5</definedName>
+    <definedName name="存储备份">软件分类!$G$2:$G$4</definedName>
+    <definedName name="其它">软件分类!$H$2:$H$3</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
   <si>
     <t>需求来源</t>
   </si>
@@ -84,10 +93,10 @@
     <t>填写完整的产品名称，例：</t>
   </si>
   <si>
-    <t>参考生态网站软件分类二</t>
-  </si>
-  <si>
-    <t>参考生态网站软件分类三</t>
+    <t>日常办公</t>
+  </si>
+  <si>
+    <t>即时通讯</t>
   </si>
   <si>
     <t>银河麒麟桌面操作系统V10SP1</t>
@@ -112,6 +121,180 @@
   </si>
   <si>
     <t>张智斌</t>
+  </si>
+  <si>
+    <t>多媒体软件</t>
+  </si>
+  <si>
+    <t>基础软件</t>
+  </si>
+  <si>
+    <t>安全防护</t>
+  </si>
+  <si>
+    <t>业务软件</t>
+  </si>
+  <si>
+    <t>开发测试</t>
+  </si>
+  <si>
+    <t>存储备份</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>音视频</t>
+  </si>
+  <si>
+    <t>数据库</t>
+  </si>
+  <si>
+    <t>防火墙</t>
+  </si>
+  <si>
+    <t>财务软件</t>
+  </si>
+  <si>
+    <t>备份恢复</t>
+  </si>
+  <si>
+    <t>驱动</t>
+  </si>
+  <si>
+    <t>浏览器</t>
+  </si>
+  <si>
+    <t>图形图像</t>
+  </si>
+  <si>
+    <t>中间件</t>
+  </si>
+  <si>
+    <t>杀毒软件</t>
+  </si>
+  <si>
+    <t>运维管理</t>
+  </si>
+  <si>
+    <t>设计仿真</t>
+  </si>
+  <si>
+    <t>存储软件</t>
+  </si>
+  <si>
+    <t>流式版式软件</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>虚拟化</t>
+  </si>
+  <si>
+    <t>入侵检测</t>
+  </si>
+  <si>
+    <t>业务管理系统</t>
+  </si>
+  <si>
+    <t>编译器&amp;工具链</t>
+  </si>
+  <si>
+    <t>签章软件</t>
+  </si>
+  <si>
+    <t>大数据</t>
+  </si>
+  <si>
+    <t>终端安全管理</t>
+  </si>
+  <si>
+    <t>监控软件(HMI/SCADA)</t>
+  </si>
+  <si>
+    <t>视频会议</t>
+  </si>
+  <si>
+    <t>云桌面</t>
+  </si>
+  <si>
+    <t>身份认证</t>
+  </si>
+  <si>
+    <t>人工智能</t>
+  </si>
+  <si>
+    <t>输入法</t>
+  </si>
+  <si>
+    <t>云平台</t>
+  </si>
+  <si>
+    <t>网络接入</t>
+  </si>
+  <si>
+    <t>电子商务</t>
+  </si>
+  <si>
+    <t>协同办公</t>
+  </si>
+  <si>
+    <t>区块链</t>
+  </si>
+  <si>
+    <t>威胁预警</t>
+  </si>
+  <si>
+    <t>ERP</t>
+  </si>
+  <si>
+    <t>压缩软件</t>
+  </si>
+  <si>
+    <t>分布式存储</t>
+  </si>
+  <si>
+    <t>态势感知</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>邮件系统</t>
+  </si>
+  <si>
+    <t>高可用</t>
+  </si>
+  <si>
+    <t>审计</t>
+  </si>
+  <si>
+    <t>GIS</t>
+  </si>
+  <si>
+    <t>云盘</t>
+  </si>
+  <si>
+    <t>负载均衡</t>
+  </si>
+  <si>
+    <t>隔离交换</t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <t>字体</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>翻译</t>
+  </si>
+  <si>
+    <t>高性能计算</t>
   </si>
 </sst>
 </file>
@@ -125,7 +308,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +317,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -143,6 +339,12 @@
     </font>
     <font>
       <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -636,10 +838,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,147 +850,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -797,16 +1005,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1163,8 +1375,8 @@
   <sheetPr/>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1182,7 +1394,7 @@
     <col min="12" max="12" width="9.89166666666667" customWidth="1"/>
     <col min="14" max="14" width="12.3333333333333" customWidth="1"/>
     <col min="15" max="15" width="18.5583333333333" customWidth="1"/>
-    <col min="16" max="16" width="14.8916666666667" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.8916666666667" style="3" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
     <col min="18" max="18" width="20.1083333333333" customWidth="1"/>
     <col min="19" max="19" width="15.1083333333333" customWidth="1"/>
@@ -1190,129 +1402,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="67.5" spans="1:20">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="7" t="s">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="3"/>
+      <c r="T2" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
       <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>INDIRECT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
-      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7,银河麒麟服务器操作系统V10SP2,银河麒麟桌面操作系统（金融机具版）V10,银河麒麟桌面操作系统（工控机版）V10,银河麒麟桌面操作系统（教育版）V10,银河麒麟桌面操作系统（大屏版）V10SP1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
-      <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>软件分类!$A$1:$E$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
       <formula1>"招投标,实施阶段,运维阶段"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7,银河麒麟服务器操作系统V10SP2,银河麒麟桌面操作系统（金融机具版）V10,银河麒麟桌面操作系统（工控机版）V10,银河麒麟桌面操作系统（教育版）V10,银河麒麟桌面操作系统（大屏版）V10SP1"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"一般,紧急"</formula1>
@@ -1327,33 +1545,302 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
+    <col min="2" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="15.75" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="15.75" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="15.75" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" ht="15.75" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" ht="15.75" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" ht="15.75" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" ht="15.75" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" ht="15.75" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" ht="15.75" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" ht="15.75" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+  </sheetData>
+  <sheetProtection password="F6EA" sheet="1" objects="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>